--- a/flows/UMI_fund_flow_data.xlsx
+++ b/flows/UMI_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B737"/>
+  <dimension ref="A1:B753"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7805,6 +7805,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B738" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B739" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B740" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B741" t="n">
+        <v>0.37474</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B742" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B743" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B744" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B745" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B746" t="n">
+        <v>0.7629</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B747" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B748" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B749" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B750" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B751" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B752" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B753" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
